--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H2">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I2">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J2">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>3663.47903204855</v>
+        <v>1901.163502779204</v>
       </c>
       <c r="R2">
-        <v>32971.31128843695</v>
+        <v>17110.47152501283</v>
       </c>
       <c r="S2">
-        <v>0.9101596002940662</v>
+        <v>0.885735354938578</v>
       </c>
       <c r="T2">
-        <v>0.9101596002940664</v>
+        <v>0.885735354938578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H3">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I3">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J3">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>11.57054248826667</v>
+        <v>8.753530164679113</v>
       </c>
       <c r="R3">
-        <v>104.1348823944</v>
+        <v>78.78177148211201</v>
       </c>
       <c r="S3">
-        <v>0.002874600955588802</v>
+        <v>0.004078192715168093</v>
       </c>
       <c r="T3">
-        <v>0.002874600955588803</v>
+        <v>0.004078192715168093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.947775</v>
+        <v>22.65656533333333</v>
       </c>
       <c r="H4">
-        <v>89.84332500000001</v>
+        <v>67.969696</v>
       </c>
       <c r="I4">
-        <v>0.9303126840830549</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="J4">
-        <v>0.930312684083055</v>
+        <v>0.9268638682343595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>69.54753819585001</v>
+        <v>79.52569225264357</v>
       </c>
       <c r="R4">
-        <v>625.92784376265</v>
+        <v>715.7312302737921</v>
       </c>
       <c r="S4">
-        <v>0.01727848283339984</v>
+        <v>0.03705032058061339</v>
       </c>
       <c r="T4">
-        <v>0.01727848283339985</v>
+        <v>0.0370503205806134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.945626</v>
       </c>
       <c r="I5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J5">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>120.1117510650573</v>
+        <v>82.39137400346023</v>
       </c>
       <c r="R5">
-        <v>1081.005759585516</v>
+        <v>741.522366031142</v>
       </c>
       <c r="S5">
-        <v>0.02984072308962083</v>
+        <v>0.038385416504236</v>
       </c>
       <c r="T5">
-        <v>0.02984072308962084</v>
+        <v>0.038385416504236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.945626</v>
       </c>
       <c r="I6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J6">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
         <v>0.3793547354524445</v>
@@ -818,10 +818,10 @@
         <v>3.414192619072</v>
       </c>
       <c r="S6">
-        <v>9.424739472194757E-05</v>
+        <v>0.0001767380347678725</v>
       </c>
       <c r="T6">
-        <v>9.424739472194757E-05</v>
+        <v>0.0001767380347678725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.945626</v>
       </c>
       <c r="I7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="J7">
-        <v>0.03050146719708818</v>
+        <v>0.04016781697437198</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>2.280203195348</v>
+        <v>3.446432168350222</v>
       </c>
       <c r="R7">
-        <v>20.521828758132</v>
+        <v>31.017889515152</v>
       </c>
       <c r="S7">
-        <v>0.0005664967127453958</v>
+        <v>0.001605662435368107</v>
       </c>
       <c r="T7">
-        <v>0.0005664967127453959</v>
+        <v>0.001605662435368107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H8">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I8">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J8">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>154.30998372307</v>
+        <v>67.62390786545055</v>
       </c>
       <c r="R8">
-        <v>1388.78985350763</v>
+        <v>608.615170789055</v>
       </c>
       <c r="S8">
-        <v>0.03833697746817401</v>
+        <v>0.03150538391252445</v>
       </c>
       <c r="T8">
-        <v>0.03833697746817403</v>
+        <v>0.03150538391252444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H9">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I9">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J9">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>0.4873646627733333</v>
+        <v>0.3113608674311111</v>
       </c>
       <c r="R9">
-        <v>4.38628196496</v>
+        <v>2.80224780688</v>
       </c>
       <c r="S9">
-        <v>0.0001210815246345733</v>
+        <v>0.0001450602896725751</v>
       </c>
       <c r="T9">
-        <v>0.0001210815246345734</v>
+        <v>0.000145060289672575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.261435</v>
+        <v>0.8058883333333333</v>
       </c>
       <c r="H10">
-        <v>3.784305</v>
+        <v>2.417665</v>
       </c>
       <c r="I10">
-        <v>0.03918584871985675</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="J10">
-        <v>0.03918584871985676</v>
+        <v>0.03296831479126849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>2.92942293189</v>
+        <v>2.828708881675555</v>
       </c>
       <c r="R10">
-        <v>26.36480638701</v>
+        <v>25.45837993508</v>
       </c>
       <c r="S10">
-        <v>0.0007277897270481605</v>
+        <v>0.001317870589071469</v>
       </c>
       <c r="T10">
-        <v>0.0007277897270481608</v>
+        <v>0.001317870589071469</v>
       </c>
     </row>
   </sheetData>
